--- a/medicine/Psychotrope/Bardolino_superiore/Bardolino_superiore.xlsx
+++ b/medicine/Psychotrope/Bardolino_superiore/Bardolino_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bardolino superiore est un vin AOP (DOCG)[1] produit dans la province de Vérone, dans les communes de bardolino, Garda, Lazise, Affi, Costermano, Cavaion Veronese, Torri del Benaco, Caprino, Rivoli Veronese, Pastrengo, Bussolengo, Sona, Sommacampagna, Castelnuovo, Peschiera, Valeggio. 
+Le bardolino superiore est un vin AOP (DOCG) produit dans la province de Vérone, dans les communes de bardolino, Garda, Lazise, Affi, Costermano, Cavaion Veronese, Torri del Benaco, Caprino, Rivoli Veronese, Pastrengo, Bussolengo, Sona, Sommacampagna, Castelnuovo, Peschiera, Valeggio. 
 Le bardolino superiore est le premier vin rouge à obtenir l’appellation AOP (DOCG).
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières mentions du bardolino superiore sont dues à l’écrivain de Brescia qui, en 1897, identifiait le vieillissement du bardolino comme étant « de fabrication précise et, surtout, de type plus stable ».
 En 1926 fut constitué le premier Consortium pour la protection du bardolino, sur base volontaire.
@@ -550,10 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologie
-Les sols de la culture des cépages utilisés dans la production de ce vin sont extrêmement variables, mais ils sont principalement graveleux et profonds. Ceux-ci doivent être maigres, bien drainés, bien équilibrés et bien exposés au sud ou au sud-est. 
-Climatologie
-La proximité du lac de Garde, du massif montagneux Baldo et du fleuve Adige contribue à un climat méditerranéen qui est caractérisé par des étés chaleureux mais pas étouffants, des hivers doux et de bonnes différences de température entre le jour et la nuit.
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols de la culture des cépages utilisés dans la production de ce vin sont extrêmement variables, mais ils sont principalement graveleux et profonds. Ceux-ci doivent être maigres, bien drainés, bien équilibrés et bien exposés au sud ou au sud-est. 
 </t>
         </is>
       </c>
@@ -579,13 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Encépagement</t>
+          <t>Situation géographique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans la production du vin bardolino superiore, sont utilisés principalement les cépages suivants : le Corvina, de 35 à 80 %, le Corvinone, pouvant remplacer le Corvina, pour un maximum de 20 %, le Rondinella, de 10 à 40 % et le Molinara jusqu’à 15 %.
-Les cépages à baie rouge, non aromatiques admis à la culture dans la province de Vérone peuvent être utilisés également dans une proportion n’excédant pas 20 % et respectant la limite de 10 % pour chaque cépage utilisé.
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La proximité du lac de Garde, du massif montagneux Baldo et du fleuve Adige contribue à un climat méditerranéen qui est caractérisé par des étés chaleureux mais pas étouffants, des hivers doux et de bonnes différences de température entre le jour et la nuit.
 </t>
         </is>
       </c>
@@ -611,10 +633,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la production du vin bardolino superiore, sont utilisés principalement les cépages suivants : le Corvina, de 35 à 80 %, le Corvinone, pouvant remplacer le Corvina, pour un maximum de 20 %, le Rondinella, de 10 à 40 % et le Molinara jusqu’à 15 %.
+Les cépages à baie rouge, non aromatiques admis à la culture dans la province de Vérone peuvent être utilisés également dans une proportion n’excédant pas 20 % et respectant la limite de 10 % pour chaque cépage utilisé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture de la vigne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la culture de cépages aptes à produire le vin bardolino superiore sont utilisées la taille en cordon de Royat en terrain plat, et la taille en Guyot en terrain vallonné. Les vignobles sont très proches les uns des autres et la production des pieds par hectare est réduite (3.300 pieds par hectare). Le but est d’obtenir des raisins ayant une teneur en sucre assez élevée afin de favoriser la production de vins d’un bon potentiel de vieillissement à moyen terme.
 Dès la véraison des grappes, une particulière attention est accordée à la maturation afin d’identifier le bon moment de la vendange. La même attention est accordée aux raisins dans la cave où, en conjonction avec les techniques de vinification traditionnelle, sont utilisés la fermentation étendue, le foulage continu et un plus grand repos sur la lie de vin.
@@ -627,31 +685,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bardolino_superiore</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bardolino_superiore</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Taux d'alcool minimum du vin : 12 %vol ;
 Acidité totale minimale : 4,5 g/L ;
@@ -660,31 +720,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bardolino_superiore</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bardolino_superiore</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur : rouge rubis lorsque le vin est jeune, évoluant vers le rouge grenat en vieillissant ;
 Odeur : caractéristique ;
@@ -694,37 +756,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bardolino_superiore</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bardolino_superiore</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Gastronomie</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vin bardolino superiore peut accompagner les hors-d’œuvre à base de jambon de Vénétie, la « soppressa piacentina », le fromage « Asiago » et la « tacchinella al melograno ».
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -746,10 +777,45 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin bardolino superiore peut accompagner les hors-d’œuvre à base de jambon de Vénétie, la « soppressa piacentina », le fromage « Asiago » et la « tacchinella al melograno ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bardolino_superiore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Bardolino superiore classico</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin présentant les propriétés semblables à celles du bardolino superiore, mais celui-ci doit être produit dans une aire restreinte. Cette région comprend les communes de Bardolino, Garda, Lazise, Affi, Costermano, Cavaion.
 </t>
